--- a/quan ly khach hang.xlsx
+++ b/quan ly khach hang.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Khach hang" sheetId="1" r:id="rId1"/>
     <sheet name="Nguon chi" sheetId="2" r:id="rId2"/>
     <sheet name="Vốn" sheetId="3" r:id="rId3"/>
+    <sheet name="Chuyển tiền" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Stt</t>
   </si>
@@ -100,6 +101,21 @@
   </si>
   <si>
     <t>Giang</t>
+  </si>
+  <si>
+    <t>4 con 6 gray</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>10 bộ củ xạc</t>
+  </si>
+  <si>
+    <t>6 16gb grey đẹp</t>
+  </si>
+  <si>
+    <t>6 16gb grey nhỡ</t>
   </si>
 </sst>
 </file>
@@ -456,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,26 +589,58 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>355767074162038</v>
+      </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2">
+        <v>352069064368235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2">
+        <v>352028075305909</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>352074067470236</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2">
+        <v>354405061236876</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -637,6 +685,11 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -649,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +731,7 @@
       </c>
       <c r="F1">
         <f>SUM(E:E)</f>
-        <v>30015000</v>
+        <v>30615000</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,15 +827,48 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>43020</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>43020</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>500000</v>
+      </c>
+      <c r="E8">
+        <v>500000</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43020</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>100000</v>
+      </c>
+      <c r="E9">
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,4 +934,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/quan ly khach hang.xlsx
+++ b/quan ly khach hang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Stt</t>
   </si>
@@ -116,6 +116,24 @@
   </si>
   <si>
     <t>6 16gb grey nhỡ</t>
+  </si>
+  <si>
+    <t>6s 16 gb hồng nhỡ</t>
+  </si>
+  <si>
+    <t>Cung Ut</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cung.ut.54379236</t>
+  </si>
+  <si>
+    <t>0969704836</t>
+  </si>
+  <si>
+    <t>Triều</t>
+  </si>
+  <si>
+    <t>0935981991</t>
   </si>
 </sst>
 </file>
@@ -475,7 +493,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,24 +607,61 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>43021</v>
+      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>355767074162038</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="E4" s="3">
+        <v>5600000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" s="1">
+        <v>43021</v>
+      </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>352069064368235</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4600000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5090000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/quan ly khach hang.xlsx
+++ b/quan ly khach hang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Stt</t>
   </si>
@@ -40,12 +40,6 @@
     <t>IMEI</t>
   </si>
   <si>
-    <t>6s 16 gb vàng nhỡ</t>
-  </si>
-  <si>
-    <t>6s 16 gb hồng đẹp</t>
-  </si>
-  <si>
     <t>Giá</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>6 16gb grey nhỡ</t>
   </si>
   <si>
-    <t>6s 16 gb hồng nhỡ</t>
-  </si>
-  <si>
     <t>Cung Ut</t>
   </si>
   <si>
@@ -134,6 +125,30 @@
   </si>
   <si>
     <t>0935981991</t>
+  </si>
+  <si>
+    <t>6 16gb white đẹp</t>
+  </si>
+  <si>
+    <t>A Tín</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/thi.ralazay</t>
+  </si>
+  <si>
+    <t>01668443553</t>
+  </si>
+  <si>
+    <t>6s 16gb gray đẹp</t>
+  </si>
+  <si>
+    <t>6s 16 gb rose đẹp</t>
+  </si>
+  <si>
+    <t>6s 16 gb rose nhỡ</t>
+  </si>
+  <si>
+    <t>6s 16 gb gold nhỡ</t>
   </si>
 </sst>
 </file>
@@ -493,7 +508,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,10 +536,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -536,7 +551,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -547,7 +562,7 @@
         <v>43012</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2">
         <v>353309078152319</v>
@@ -559,16 +574,16 @@
         <v>6450000</v>
       </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -579,7 +594,7 @@
         <v>43012</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2">
         <v>353265078691245</v>
@@ -591,16 +606,16 @@
         <v>6150000</v>
       </c>
       <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -611,7 +626,7 @@
         <v>43021</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2">
         <v>355767074162038</v>
@@ -623,16 +638,16 @@
         <v>6000000</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -643,7 +658,7 @@
         <v>43021</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>352069064368235</v>
@@ -655,13 +670,13 @@
         <v>5090000</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -669,10 +684,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>352028075305909</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4600000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -680,10 +698,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>352074067470236</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4600000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -691,25 +712,73 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>354405061236876</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4600000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2">
+        <v>359303069801723</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4400000</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="1">
+        <v>43025</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2">
+        <v>355423075668850</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6100000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6400000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2">
+        <v>353310079526006</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5700000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -776,13 +845,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1">
         <f>SUM(E:E)</f>
@@ -797,10 +866,10 @@
         <v>43008</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <f>3*6100000+2*5600000</f>
@@ -815,10 +884,10 @@
         <v>43008</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <f>5*70000</f>
@@ -833,10 +902,10 @@
         <v>43008</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <f>10*7000</f>
@@ -851,10 +920,10 @@
         <v>43008</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <f>5*5000</f>
@@ -869,7 +938,7 @@
         <v>43010</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>70000</v>
@@ -886,10 +955,10 @@
         <v>43020</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -900,7 +969,7 @@
         <v>43020</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>500000</v>
@@ -917,7 +986,7 @@
         <v>43020</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>100000</v>
@@ -983,7 +1052,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/quan ly khach hang.xlsx
+++ b/quan ly khach hang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Stt</t>
   </si>
@@ -149,6 +149,57 @@
   </si>
   <si>
     <t>6s 16 gb gold nhỡ</t>
+  </si>
+  <si>
+    <t>7 plus 128 trắng đẹp</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>6s plus 16 đẹp</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Thanh Mai.</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>0973647125</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>7 plus 32 đen nhám đẹp</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Đô</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>01682452784</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>7plus 32 nhám đen</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Sự</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Hiệp</t>
+  </si>
+  <si>
+    <t>Hiệp giao hàng, Giang bán</t>
+  </si>
+  <si>
+    <t>6s 16 gb vàng đẹp</t>
+  </si>
+  <si>
+    <t>Scamer</t>
+  </si>
+  <si>
+    <t>6s 16gb grey đẹp</t>
   </si>
 </sst>
 </file>
@@ -508,7 +559,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,33 +836,129 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" s="1">
+        <v>43024</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2">
+        <v>353292070949164</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7150000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7800000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" s="1">
+        <v>43023</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2">
+        <v>355835084283209</v>
+      </c>
+      <c r="E15" s="3">
+        <v>13000000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>13400000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>43025</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2">
+        <v>353815080062833</v>
+      </c>
+      <c r="E16" s="3">
+        <v>13000000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>13400000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2">
+        <v>352211074851332</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>

--- a/quan ly khach hang.xlsx
+++ b/quan ly khach hang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Stt</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>6s 16gb grey đẹp</t>
+  </si>
+  <si>
+    <t>A Vịnh</t>
+  </si>
+  <si>
+    <t>0935865216</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/ngocvinh1803</t>
   </si>
 </sst>
 </file>
@@ -559,7 +568,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,6 +831,9 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" s="1">
+        <v>43026</v>
+      </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
@@ -829,7 +841,22 @@
         <v>353310079526006</v>
       </c>
       <c r="E11" s="3">
-        <v>5700000</v>
+        <v>5800000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6250000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">

--- a/quan ly khach hang.xlsx
+++ b/quan ly khach hang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Stt</t>
   </si>
@@ -209,6 +209,51 @@
   </si>
   <si>
     <t>https://web.facebook.com/ngocvinh1803</t>
+  </si>
+  <si>
+    <t>7plus 32 nhám đen đẹp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tường</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0979254666</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hiep</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6 vàng 64g đẹp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01657122407</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6 grey 16 98%</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Khánh(thợ)ko bảo hành</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0967708627</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bảo Vân</t>
+  </si>
+  <si>
+    <t>Hiệp + Giang bán</t>
+  </si>
+  <si>
+    <t>Hiệp nhập hàng + giao hàng, Giang bán</t>
   </si>
 </sst>
 </file>
@@ -218,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$₫-42A]"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +275,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -565,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +1023,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -985,9 +1037,91 @@
         <v>6100000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43026</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2">
+        <v>355837082321130</v>
+      </c>
+      <c r="E18" s="3">
+        <v>13200000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>13800000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43026</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2">
+        <v>354405061749539</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6300000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43026</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2">
+        <v>111111111111111</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/quan ly khach hang.xlsx
+++ b/quan ly khach hang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>Stt</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Hiệp nhập hàng + giao hàng, Giang bán</t>
+  </si>
+  <si>
+    <t>A Tuấn</t>
+  </si>
+  <si>
+    <t>0905006993</t>
   </si>
 </sst>
 </file>
@@ -620,7 +626,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,6 +801,9 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="1">
+        <v>43033</v>
+      </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -803,6 +812,18 @@
       </c>
       <c r="E6" s="3">
         <v>4600000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4900000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -816,7 +837,7 @@
         <v>352074067470236</v>
       </c>
       <c r="E7" s="3">
-        <v>4600000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -830,7 +851,7 @@
         <v>354405061236876</v>
       </c>
       <c r="E8" s="3">
-        <v>4600000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1135,7 +1156,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1184,7 @@
       </c>
       <c r="F1">
         <f>SUM(E:E)</f>
-        <v>30615000</v>
+        <v>30815000</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,6 +1327,18 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43035</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>200000</v>
+      </c>
+      <c r="E10">
+        <v>200000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">

--- a/quan ly khach hang.xlsx
+++ b/quan ly khach hang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>Stt</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>0905006993</t>
+  </si>
+  <si>
+    <t>6 plus trắng 99%</t>
+  </si>
+  <si>
+    <t>A Đạo</t>
+  </si>
+  <si>
+    <t>0962659393</t>
+  </si>
+  <si>
+    <t>6 plus đen 98%</t>
   </si>
 </sst>
 </file>
@@ -623,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1101,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>43026</v>
@@ -1118,7 +1130,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>43026</v>
@@ -1143,6 +1155,79 @@
       </c>
       <c r="J20" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43037</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2">
+        <v>354385066175644</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6050000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6500000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="2">
+        <v>354388069256999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6050000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1471,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/quan ly khach hang.xlsx
+++ b/quan ly khach hang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>Stt</t>
   </si>
@@ -272,6 +272,49 @@
   </si>
   <si>
     <t>6 plus đen 98%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 plus 16gb </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Anh Hiệp</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/phuochiep24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 plus 16 gold </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6s plus 16 hồng</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>6s plus 16 trắng + phụ kiện</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">365 days </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Hoàng Văn Sơn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Hiep</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6s Vàng</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7 plus đen nhám 32gb </t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -281,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$₫-42A]"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +346,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -635,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1070,7 +1121,7 @@
         <v>6100000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1099,7 +1150,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1128,7 +1179,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1157,7 +1208,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1186,7 +1237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1200,35 +1251,177 @@
         <v>6050000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>6089000</v>
+      </c>
+      <c r="I23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" s="2">
+        <v>358351068292486</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6100000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6400000</v>
+      </c>
+      <c r="I24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" s="2">
+        <v>356998063526509</v>
+      </c>
+      <c r="G25" s="3">
+        <v>6100000</v>
+      </c>
+      <c r="H25" s="3">
+        <v>6400000</v>
+      </c>
+      <c r="I25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26" s="2">
+        <v>355735074204662</v>
+      </c>
+      <c r="G26" s="3">
+        <v>7100000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7200000</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" s="2">
+        <v>355736071020119</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7200000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7740000</v>
+      </c>
+      <c r="I27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29"/>
+      <c r="K29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
